--- a/Proyecto Final/Costos proyecto ensayos.xlsx
+++ b/Proyecto Final/Costos proyecto ensayos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022 - 1\Gerencia de Proyectos Tecnológicos\ProyectoGerenciaGIT\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Gerente</t>
   </si>
@@ -172,16 +172,40 @@
   </si>
   <si>
     <t>Líder técnico</t>
+  </si>
+  <si>
+    <t>procentaje</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.000000000000000000000_-;\-&quot;$&quot;\ * #,##0.000000000000000000000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,25 +363,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -377,11 +394,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,16 +435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>118868</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50660</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492248</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>126860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,7 +461,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14516100" y="1196340"/>
+          <a:off x="716280" y="6576060"/>
           <a:ext cx="9171428" cy="6200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -736,56 +771,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V23"/>
+  <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="19" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="J2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="U2" s="14" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="U2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -806,7 +846,7 @@
       <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -821,21 +861,21 @@
       <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -859,39 +899,40 @@
         <f>+G4/E4</f>
         <v>50000</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="25">
         <f>O4*L4</f>
-        <v>58310000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3">
+        <v>43853908.125649996</v>
+      </c>
+      <c r="L4" s="25">
+        <v>25</v>
+      </c>
+      <c r="M4" s="25">
+        <v>8</v>
+      </c>
+      <c r="N4" s="25">
         <f>+M4*L4</f>
         <v>200</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="22">
         <f>P4*M4</f>
-        <v>2332400</v>
-      </c>
-      <c r="P4" s="3">
-        <v>291550</v>
-      </c>
-      <c r="U4" s="16" t="s">
+        <v>1754156.3250259999</v>
+      </c>
+      <c r="P4" s="22">
+        <f>291550*R5</f>
+        <v>219269.54062824999</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -915,33 +956,40 @@
         <f t="shared" ref="H5:H23" si="2">+G5/E5</f>
         <v>11500</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="25">
         <f t="shared" ref="K5:K16" si="3">O5*L5</f>
-        <v>47362000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3">
+        <v>35620113.130630001</v>
+      </c>
+      <c r="L5" s="25">
+        <v>25</v>
+      </c>
+      <c r="M5" s="25">
+        <v>8</v>
+      </c>
+      <c r="N5" s="25">
         <f t="shared" ref="N5:N16" si="4">+M5*L5</f>
         <v>200</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="22">
         <f t="shared" ref="O5:O16" si="5">P5*M5</f>
-        <v>1894480</v>
-      </c>
-      <c r="P5" s="3">
-        <v>236810</v>
+        <v>1424804.5252252</v>
+      </c>
+      <c r="P5" s="22">
+        <f>236810*R5</f>
+        <v>178100.56565315</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5">
+        <v>0.752082115</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -965,33 +1013,34 @@
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="25">
         <f t="shared" si="3"/>
-        <v>41650000</v>
-      </c>
-      <c r="L6" s="3">
-        <v>25</v>
-      </c>
-      <c r="M6" s="3">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3">
+        <v>31324220.089749999</v>
+      </c>
+      <c r="L6" s="25">
+        <v>25</v>
+      </c>
+      <c r="M6" s="25">
+        <v>8</v>
+      </c>
+      <c r="N6" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="22">
         <f t="shared" si="5"/>
-        <v>1666000</v>
-      </c>
-      <c r="P6" s="3">
-        <v>208250</v>
+        <v>1252968.8035899999</v>
+      </c>
+      <c r="P6" s="22">
+        <f>208250*R5</f>
+        <v>156621.10044874999</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1015,33 +1064,34 @@
         <f t="shared" si="2"/>
         <v>13500</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="25">
         <f t="shared" si="3"/>
-        <v>64022000</v>
-      </c>
-      <c r="L7" s="3">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3">
-        <v>8</v>
-      </c>
-      <c r="N7" s="3">
+        <v>48149801.166529998</v>
+      </c>
+      <c r="L7" s="25">
+        <v>25</v>
+      </c>
+      <c r="M7" s="25">
+        <v>8</v>
+      </c>
+      <c r="N7" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="22">
         <f t="shared" si="5"/>
-        <v>2560880</v>
-      </c>
-      <c r="P7" s="3">
-        <v>320110</v>
+        <v>1925992.0466612</v>
+      </c>
+      <c r="P7" s="22">
+        <f>320110*R5</f>
+        <v>240749.00583265</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -1065,33 +1115,34 @@
         <f t="shared" si="2"/>
         <v>9250</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="25">
         <f t="shared" si="3"/>
-        <v>64022000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>25</v>
-      </c>
-      <c r="M8" s="3">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3">
+        <v>48149801.166529998</v>
+      </c>
+      <c r="L8" s="25">
+        <v>25</v>
+      </c>
+      <c r="M8" s="25">
+        <v>8</v>
+      </c>
+      <c r="N8" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="22">
         <f t="shared" si="5"/>
-        <v>2560880</v>
-      </c>
-      <c r="P8" s="3">
-        <v>320110</v>
+        <v>1925992.0466612</v>
+      </c>
+      <c r="P8" s="22">
+        <f>320110*R5</f>
+        <v>240749.00583265</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1115,33 +1166,34 @@
         <f t="shared" si="2"/>
         <v>10500</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="25">
         <f t="shared" si="3"/>
-        <v>49504000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>25</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3">
+        <v>37231073.020960003</v>
+      </c>
+      <c r="L9" s="25">
+        <v>25</v>
+      </c>
+      <c r="M9" s="25">
+        <v>8</v>
+      </c>
+      <c r="N9" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="22">
         <f t="shared" si="5"/>
-        <v>1980160</v>
-      </c>
-      <c r="P9" s="3">
-        <v>247520</v>
+        <v>1489242.9208384</v>
+      </c>
+      <c r="P9" s="22">
+        <f>247520*R5</f>
+        <v>186155.3651048</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -1165,33 +1217,43 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="25">
         <f t="shared" si="3"/>
-        <v>64022000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>25</v>
-      </c>
-      <c r="M10" s="3">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3">
+        <v>48149801.166529998</v>
+      </c>
+      <c r="L10" s="25">
+        <v>25</v>
+      </c>
+      <c r="M10" s="25">
+        <v>8</v>
+      </c>
+      <c r="N10" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="22">
         <f t="shared" si="5"/>
-        <v>2560880</v>
-      </c>
-      <c r="P10" s="3">
-        <v>320110</v>
+        <v>1925992.0466612</v>
+      </c>
+      <c r="P10" s="22">
+        <f>320110*R5</f>
+        <v>240749.00583265</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -1215,33 +1277,45 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="25">
         <f t="shared" si="3"/>
-        <v>64022000</v>
-      </c>
-      <c r="L11" s="3">
-        <v>25</v>
-      </c>
-      <c r="M11" s="3">
-        <v>8</v>
-      </c>
-      <c r="N11" s="3">
+        <v>48149801.166529998</v>
+      </c>
+      <c r="L11" s="25">
+        <v>25</v>
+      </c>
+      <c r="M11" s="25">
+        <v>8</v>
+      </c>
+      <c r="N11" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="22">
         <f t="shared" si="5"/>
-        <v>2560880</v>
-      </c>
-      <c r="P11" s="3">
-        <v>320110</v>
+        <v>1925992.0466612</v>
+      </c>
+      <c r="P11" s="22">
+        <f>320110*R5</f>
+        <v>240749.00583265</v>
+      </c>
+      <c r="T11" s="19">
+        <v>291550</v>
+      </c>
+      <c r="U11" s="20">
+        <f>T11*8</f>
+        <v>2332400</v>
+      </c>
+      <c r="V11" s="20">
+        <f>U11*25</f>
+        <v>58310000</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -1265,33 +1339,45 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="25">
         <f t="shared" si="3"/>
-        <v>22848000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>25</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3">
+        <v>17183572.163520001</v>
+      </c>
+      <c r="L12" s="25">
+        <v>25</v>
+      </c>
+      <c r="M12" s="25">
+        <v>8</v>
+      </c>
+      <c r="N12" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="22">
         <f t="shared" si="5"/>
-        <v>913920</v>
-      </c>
-      <c r="P12" s="3">
-        <v>114240</v>
+        <v>687342.88654079998</v>
+      </c>
+      <c r="P12" s="22">
+        <f>114240*R5</f>
+        <v>85917.860817599998</v>
+      </c>
+      <c r="T12" s="19">
+        <v>236810</v>
+      </c>
+      <c r="U12" s="20">
+        <f>T12*8</f>
+        <v>1894480</v>
+      </c>
+      <c r="V12" s="20">
+        <f>U12*25</f>
+        <v>47362000</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -1313,33 +1399,45 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="25">
         <f t="shared" si="3"/>
-        <v>24990000</v>
-      </c>
-      <c r="L13" s="3">
-        <v>25</v>
-      </c>
-      <c r="M13" s="3">
-        <v>8</v>
-      </c>
-      <c r="N13" s="3">
+        <v>18794532.053849999</v>
+      </c>
+      <c r="L13" s="25">
+        <v>25</v>
+      </c>
+      <c r="M13" s="25">
+        <v>8</v>
+      </c>
+      <c r="N13" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="22">
         <f t="shared" si="5"/>
-        <v>999600</v>
-      </c>
-      <c r="P13" s="3">
-        <v>124950</v>
+        <v>751781.28215400001</v>
+      </c>
+      <c r="P13" s="22">
+        <f>124950*R5</f>
+        <v>93972.660269250002</v>
+      </c>
+      <c r="T13" s="19">
+        <v>208250</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" ref="U13:U23" si="6">T13*8</f>
+        <v>1666000</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" ref="V13:V23" si="7">U13*25</f>
+        <v>41650000</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -1361,33 +1459,45 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="25">
         <f t="shared" si="3"/>
-        <v>11662000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>25</v>
-      </c>
-      <c r="M14" s="3">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+        <v>8770781.6251299996</v>
+      </c>
+      <c r="L14" s="25">
+        <v>25</v>
+      </c>
+      <c r="M14" s="25">
+        <v>8</v>
+      </c>
+      <c r="N14" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="22">
         <f t="shared" si="5"/>
-        <v>466480</v>
-      </c>
-      <c r="P14" s="3">
-        <v>58310</v>
+        <v>350831.2650052</v>
+      </c>
+      <c r="P14" s="22">
+        <f>58310*R5</f>
+        <v>43853.908125649999</v>
+      </c>
+      <c r="T14" s="19">
+        <v>320110</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="6"/>
+        <v>2560880</v>
+      </c>
+      <c r="V14" s="20">
+        <f t="shared" si="7"/>
+        <v>64022000</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1">
@@ -1409,33 +1519,45 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="25">
         <f t="shared" si="3"/>
-        <v>41650000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>25</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
+        <v>31324220.089749999</v>
+      </c>
+      <c r="L15" s="25">
+        <v>25</v>
+      </c>
+      <c r="M15" s="25">
+        <v>8</v>
+      </c>
+      <c r="N15" s="25">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="22">
         <f t="shared" si="5"/>
-        <v>1666000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>208250</v>
+        <v>1252968.8035899999</v>
+      </c>
+      <c r="P15" s="22">
+        <f>208250*R5</f>
+        <v>156621.10044874999</v>
+      </c>
+      <c r="T15" s="19">
+        <v>320110</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="6"/>
+        <v>2560880</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="7"/>
+        <v>64022000</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1">
@@ -1459,33 +1581,45 @@
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="25">
         <f t="shared" si="3"/>
+        <v>37231073.020960003</v>
+      </c>
+      <c r="L16" s="25">
+        <v>25</v>
+      </c>
+      <c r="M16" s="25">
+        <v>8</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="5"/>
+        <v>1489242.9208384</v>
+      </c>
+      <c r="P16" s="22">
+        <f>247520*R5</f>
+        <v>186155.3651048</v>
+      </c>
+      <c r="T16" s="19">
+        <v>247520</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="6"/>
+        <v>1980160</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="7"/>
         <v>49504000</v>
       </c>
-      <c r="L16" s="3">
-        <v>25</v>
-      </c>
-      <c r="M16" s="3">
-        <v>8</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="5"/>
-        <v>1980160</v>
-      </c>
-      <c r="P16" s="3">
-        <v>247520</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+    </row>
+    <row r="17" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1">
@@ -1509,13 +1643,24 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="20">
         <f>SUM(K4:K16)</f>
-        <v>603568000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+        <v>453932697.98632002</v>
+      </c>
+      <c r="T17" s="19">
+        <v>320110</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="6"/>
+        <v>2560880</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="7"/>
+        <v>64022000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -1539,16 +1684,27 @@
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>2723596188</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="26">
         <f>K17*6</f>
-        <v>3621408000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+        <v>2723596187.9179201</v>
+      </c>
+      <c r="T18" s="19">
+        <v>320110</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="6"/>
+        <v>2560880</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="7"/>
+        <v>64022000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1">
@@ -1572,9 +1728,20 @@
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="T19" s="19">
+        <v>114240</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="6"/>
+        <v>913920</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="7"/>
+        <v>22848000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1">
@@ -1598,9 +1765,20 @@
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="T20" s="19">
+        <v>124950</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="6"/>
+        <v>999600</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="7"/>
+        <v>24990000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1">
@@ -1624,9 +1802,20 @@
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="T21" s="19">
+        <v>58310</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" si="6"/>
+        <v>466480</v>
+      </c>
+      <c r="V21" s="20">
+        <f t="shared" si="7"/>
+        <v>11662000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1">
@@ -1650,9 +1839,26 @@
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="O22" s="18">
+        <v>3621408000</v>
+      </c>
+      <c r="P22" s="23">
+        <v>1</v>
+      </c>
+      <c r="T22" s="19">
+        <v>208250</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="6"/>
+        <v>1666000</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="7"/>
+        <v>41650000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="1">
@@ -1675,6 +1881,35 @@
       <c r="H23" s="1">
         <f t="shared" si="2"/>
         <v>13000</v>
+      </c>
+      <c r="O23" s="18">
+        <v>2723596188</v>
+      </c>
+      <c r="P23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="19">
+        <v>247520</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="6"/>
+        <v>1980160</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="7"/>
+        <v>49504000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V24" s="20">
+        <f>SUM(V11:V23)*6</f>
+        <v>3621408000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O25" s="24">
+        <f>O23*P22/O22</f>
+        <v>0.7520821150226652</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto Final/Costos proyecto ensayos.xlsx
+++ b/Proyecto Final/Costos proyecto ensayos.xlsx
@@ -196,7 +196,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.000000000000000000000_-;\-&quot;$&quot;\ * #,##0.000000000000000000000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.000000000000000000000_-;\-&quot;$&quot;\ * #,##0.000000000000000000000_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -368,7 +368,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -394,6 +394,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,15 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -774,7 +775,7 @@
   <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,34 +790,35 @@
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="J2" s="15" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
       <c r="U2" s="11" t="s">
         <v>28</v>
       </c>
@@ -861,7 +863,7 @@
       <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -902,27 +904,31 @@
       <c r="J4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <f>O4*L4</f>
         <v>43853908.125649996</v>
       </c>
-      <c r="L4" s="25">
-        <v>25</v>
-      </c>
-      <c r="M4" s="25">
-        <v>8</v>
-      </c>
-      <c r="N4" s="25">
+      <c r="L4" s="22">
+        <v>25</v>
+      </c>
+      <c r="M4" s="22">
+        <v>8</v>
+      </c>
+      <c r="N4" s="22">
         <f>+M4*L4</f>
         <v>200</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="19">
         <f>P4*M4</f>
         <v>1754156.3250259999</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="19">
         <f>291550*R5</f>
         <v>219269.54062824999</v>
+      </c>
+      <c r="Q4" s="27">
+        <f>P4*40</f>
+        <v>8770781.6251299996</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>32</v>
@@ -959,25 +965,25 @@
       <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <f t="shared" ref="K5:K16" si="3">O5*L5</f>
         <v>35620113.130630001</v>
       </c>
-      <c r="L5" s="25">
-        <v>25</v>
-      </c>
-      <c r="M5" s="25">
-        <v>8</v>
-      </c>
-      <c r="N5" s="25">
+      <c r="L5" s="22">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22">
+        <v>8</v>
+      </c>
+      <c r="N5" s="22">
         <f t="shared" ref="N5:N16" si="4">+M5*L5</f>
         <v>200</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="19">
         <f t="shared" ref="O5:O16" si="5">P5*M5</f>
         <v>1424804.5252252</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <f>236810*R5</f>
         <v>178100.56565315</v>
       </c>
@@ -1016,25 +1022,25 @@
       <c r="J6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <f t="shared" si="3"/>
         <v>31324220.089749999</v>
       </c>
-      <c r="L6" s="25">
-        <v>25</v>
-      </c>
-      <c r="M6" s="25">
-        <v>8</v>
-      </c>
-      <c r="N6" s="25">
+      <c r="L6" s="22">
+        <v>25</v>
+      </c>
+      <c r="M6" s="22">
+        <v>8</v>
+      </c>
+      <c r="N6" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="19">
         <f t="shared" si="5"/>
         <v>1252968.8035899999</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <f>208250*R5</f>
         <v>156621.10044874999</v>
       </c>
@@ -1067,25 +1073,25 @@
       <c r="J7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <f t="shared" si="3"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="L7" s="25">
-        <v>25</v>
-      </c>
-      <c r="M7" s="25">
-        <v>8</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="L7" s="22">
+        <v>25</v>
+      </c>
+      <c r="M7" s="22">
+        <v>8</v>
+      </c>
+      <c r="N7" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="19">
         <f t="shared" si="5"/>
         <v>1925992.0466612</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="19">
         <f>320110*R5</f>
         <v>240749.00583265</v>
       </c>
@@ -1118,25 +1124,25 @@
       <c r="J8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <f t="shared" si="3"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="L8" s="25">
-        <v>25</v>
-      </c>
-      <c r="M8" s="25">
-        <v>8</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="L8" s="22">
+        <v>25</v>
+      </c>
+      <c r="M8" s="22">
+        <v>8</v>
+      </c>
+      <c r="N8" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="19">
         <f t="shared" si="5"/>
         <v>1925992.0466612</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <f>320110*R5</f>
         <v>240749.00583265</v>
       </c>
@@ -1169,25 +1175,25 @@
       <c r="J9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <f t="shared" si="3"/>
         <v>37231073.020960003</v>
       </c>
-      <c r="L9" s="25">
-        <v>25</v>
-      </c>
-      <c r="M9" s="25">
-        <v>8</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="L9" s="22">
+        <v>25</v>
+      </c>
+      <c r="M9" s="22">
+        <v>8</v>
+      </c>
+      <c r="N9" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="19">
         <f t="shared" si="5"/>
         <v>1489242.9208384</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
         <f>247520*R5</f>
         <v>186155.3651048</v>
       </c>
@@ -1220,29 +1226,29 @@
       <c r="J10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <f t="shared" si="3"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="L10" s="25">
-        <v>25</v>
-      </c>
-      <c r="M10" s="25">
-        <v>8</v>
-      </c>
-      <c r="N10" s="25">
+      <c r="L10" s="22">
+        <v>25</v>
+      </c>
+      <c r="M10" s="22">
+        <v>8</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="19">
         <f t="shared" si="5"/>
         <v>1925992.0466612</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="19">
         <f>320110*R5</f>
         <v>240749.00583265</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="U10" t="s">
@@ -1280,36 +1286,36 @@
       <c r="J11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="22">
         <f t="shared" si="3"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="L11" s="25">
-        <v>25</v>
-      </c>
-      <c r="M11" s="25">
-        <v>8</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="L11" s="22">
+        <v>25</v>
+      </c>
+      <c r="M11" s="22">
+        <v>8</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="19">
         <f t="shared" si="5"/>
         <v>1925992.0466612</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <f>320110*R5</f>
         <v>240749.00583265</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="16">
         <v>291550</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="17">
         <f>T11*8</f>
         <v>2332400</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="17">
         <f>U11*25</f>
         <v>58310000</v>
       </c>
@@ -1342,36 +1348,36 @@
       <c r="J12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="22">
         <f t="shared" si="3"/>
         <v>17183572.163520001</v>
       </c>
-      <c r="L12" s="25">
-        <v>25</v>
-      </c>
-      <c r="M12" s="25">
-        <v>8</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="L12" s="22">
+        <v>25</v>
+      </c>
+      <c r="M12" s="22">
+        <v>8</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="19">
         <f t="shared" si="5"/>
         <v>687342.88654079998</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="19">
         <f>114240*R5</f>
         <v>85917.860817599998</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="16">
         <v>236810</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="17">
         <f>T12*8</f>
         <v>1894480</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="17">
         <f>U12*25</f>
         <v>47362000</v>
       </c>
@@ -1402,36 +1408,36 @@
       <c r="J13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <f t="shared" si="3"/>
         <v>18794532.053849999</v>
       </c>
-      <c r="L13" s="25">
-        <v>25</v>
-      </c>
-      <c r="M13" s="25">
-        <v>8</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="L13" s="22">
+        <v>25</v>
+      </c>
+      <c r="M13" s="22">
+        <v>8</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="19">
         <f t="shared" si="5"/>
         <v>751781.28215400001</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="19">
         <f>124950*R5</f>
         <v>93972.660269250002</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="16">
         <v>208250</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="17">
         <f t="shared" ref="U13:U23" si="6">T13*8</f>
         <v>1666000</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="17">
         <f t="shared" ref="V13:V23" si="7">U13*25</f>
         <v>41650000</v>
       </c>
@@ -1462,36 +1468,36 @@
       <c r="J14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="22">
         <f t="shared" si="3"/>
         <v>8770781.6251299996</v>
       </c>
-      <c r="L14" s="25">
-        <v>25</v>
-      </c>
-      <c r="M14" s="25">
-        <v>8</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="L14" s="22">
+        <v>25</v>
+      </c>
+      <c r="M14" s="22">
+        <v>8</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="19">
         <f t="shared" si="5"/>
         <v>350831.2650052</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <f>58310*R5</f>
         <v>43853.908125649999</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="16">
         <v>320110</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="17">
         <f t="shared" si="6"/>
         <v>2560880</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="17">
         <f t="shared" si="7"/>
         <v>64022000</v>
       </c>
@@ -1522,36 +1528,36 @@
       <c r="J15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="22">
         <f t="shared" si="3"/>
         <v>31324220.089749999</v>
       </c>
-      <c r="L15" s="25">
-        <v>25</v>
-      </c>
-      <c r="M15" s="25">
-        <v>8</v>
-      </c>
-      <c r="N15" s="25">
+      <c r="L15" s="22">
+        <v>25</v>
+      </c>
+      <c r="M15" s="22">
+        <v>8</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="19">
         <f t="shared" si="5"/>
         <v>1252968.8035899999</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="19">
         <f>208250*R5</f>
         <v>156621.10044874999</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="16">
         <v>320110</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="17">
         <f t="shared" si="6"/>
         <v>2560880</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="17">
         <f t="shared" si="7"/>
         <v>64022000</v>
       </c>
@@ -1584,36 +1590,36 @@
       <c r="J16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="22">
         <f t="shared" si="3"/>
         <v>37231073.020960003</v>
       </c>
-      <c r="L16" s="25">
-        <v>25</v>
-      </c>
-      <c r="M16" s="25">
-        <v>8</v>
-      </c>
-      <c r="N16" s="25">
+      <c r="L16" s="22">
+        <v>25</v>
+      </c>
+      <c r="M16" s="22">
+        <v>8</v>
+      </c>
+      <c r="N16" s="22">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="19">
         <f t="shared" si="5"/>
         <v>1489242.9208384</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="19">
         <f>247520*R5</f>
         <v>186155.3651048</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="16">
         <v>247520</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="17">
         <f t="shared" si="6"/>
         <v>1980160</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="17">
         <f t="shared" si="7"/>
         <v>49504000</v>
       </c>
@@ -1643,18 +1649,18 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="17">
         <f>SUM(K4:K16)</f>
         <v>453932697.98632002</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="16">
         <v>320110</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="17">
         <f t="shared" si="6"/>
         <v>2560880</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="17">
         <f t="shared" si="7"/>
         <v>64022000</v>
       </c>
@@ -1687,18 +1693,18 @@
       <c r="J18" s="10">
         <v>2723596188</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="23">
         <f>K17*6</f>
         <v>2723596187.9179201</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T18" s="16">
         <v>320110</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="17">
         <f t="shared" si="6"/>
         <v>2560880</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="17">
         <f t="shared" si="7"/>
         <v>64022000</v>
       </c>
@@ -1728,14 +1734,14 @@
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="T19" s="19">
+      <c r="T19" s="16">
         <v>114240</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="17">
         <f t="shared" si="6"/>
         <v>913920</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="17">
         <f t="shared" si="7"/>
         <v>22848000</v>
       </c>
@@ -1765,14 +1771,14 @@
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="16">
         <v>124950</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="17">
         <f t="shared" si="6"/>
         <v>999600</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="17">
         <f t="shared" si="7"/>
         <v>24990000</v>
       </c>
@@ -1802,14 +1808,14 @@
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="16">
         <v>58310</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="17">
         <f t="shared" si="6"/>
         <v>466480</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="17">
         <f t="shared" si="7"/>
         <v>11662000</v>
       </c>
@@ -1839,20 +1845,20 @@
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="15">
         <v>3621408000</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="20">
         <v>1</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="16">
         <v>208250</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="17">
         <f t="shared" si="6"/>
         <v>1666000</v>
       </c>
-      <c r="V22" s="20">
+      <c r="V22" s="17">
         <f t="shared" si="7"/>
         <v>41650000</v>
       </c>
@@ -1882,32 +1888,32 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="15">
         <v>2723596188</v>
       </c>
       <c r="P23" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="16">
         <v>247520</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="17">
         <f t="shared" si="6"/>
         <v>1980160</v>
       </c>
-      <c r="V23" s="20">
+      <c r="V23" s="17">
         <f t="shared" si="7"/>
         <v>49504000</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V24" s="20">
+      <c r="V24" s="17">
         <f>SUM(V11:V23)*6</f>
         <v>3621408000</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="O25" s="24">
+      <c r="O25" s="21">
         <f>O23*P22/O22</f>
         <v>0.7520821150226652</v>
       </c>

--- a/Proyecto Final/Costos proyecto ensayos.xlsx
+++ b/Proyecto Final/Costos proyecto ensayos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022 - 1\Gerencia de Proyectos Tecnológicos\ProyectoGerenciaGIT\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asus\Gallego\Universidad\Actual\Gerencia\Proyecto\ProyectoGerenciaGIT\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160E16E-6ED9-4360-8E6E-B0C135E169F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-22068" yWindow="732" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,10 +145,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -366,7 +367,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
@@ -384,23 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -418,20 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,7 +419,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -470,13 +471,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>739141</xdr:colOff>
+      <xdr:colOff>746761</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>153991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -798,54 +805,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
+    <col min="12" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -861,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -869,13 +876,13 @@
         <f>G4*D4</f>
         <v>43853908.125649996</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>25</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <f>+E4*D4</f>
         <v>200</v>
       </c>
@@ -892,7 +899,7 @@
         <v>8770781.6251299996</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -900,13 +907,13 @@
         <f t="shared" ref="C5:C16" si="0">G5*D5</f>
         <v>35620113.130630001</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>25</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>8</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <f t="shared" ref="F5:F16" si="1">+E5*D5</f>
         <v>200</v>
       </c>
@@ -925,7 +932,7 @@
         <v>0.752082115</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -933,13 +940,13 @@
         <f t="shared" si="0"/>
         <v>31324220.089749999</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>25</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>8</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -952,7 +959,7 @@
         <v>156621.10044874999</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -960,13 +967,13 @@
         <f t="shared" si="0"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>25</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>8</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -979,7 +986,7 @@
         <v>240749.00583265</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -987,13 +994,13 @@
         <f t="shared" si="0"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>25</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>8</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>240749.00583265</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1014,13 +1021,13 @@
         <f t="shared" si="0"/>
         <v>37231073.020960003</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>25</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>8</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>186155.3651048</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1041,13 +1048,13 @@
         <f t="shared" si="0"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>25</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>8</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1077,13 +1084,13 @@
         <f t="shared" si="0"/>
         <v>48149801.166529998</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>25</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>58310000</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1115,13 +1122,13 @@
         <f t="shared" si="0"/>
         <v>17183572.163520001</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>25</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="21">
         <v>8</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>47362000</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1153,13 +1160,13 @@
         <f t="shared" si="0"/>
         <v>18794532.053849999</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>25</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>8</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1191,13 +1198,13 @@
         <f t="shared" si="0"/>
         <v>8770781.6251299996</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>25</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="21">
         <v>8</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>64022000</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1229,13 +1236,13 @@
         <f t="shared" si="0"/>
         <v>31324220.089749999</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>25</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>8</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>64022000</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1267,13 +1274,13 @@
         <f t="shared" si="0"/>
         <v>37231073.020960003</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>25</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>8</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>49504000</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="6"/>
       <c r="T17" s="7">
         <v>320110</v>
@@ -1311,11 +1318,11 @@
         <v>64022000</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="31" t="s">
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
       <c r="T18" s="7">
@@ -1330,23 +1337,23 @@
         <v>64022000</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="36">
         <f>SUM(C4:C16)</f>
         <v>453932697.98632002</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="33" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="15"/>
       <c r="T19" s="7">
         <v>114240</v>
       </c>
@@ -1359,23 +1366,23 @@
         <v>22848000</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="34">
         <f>C19*6</f>
         <v>2723596187.9179201</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="35" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="15"/>
       <c r="T20" s="7">
         <v>124950</v>
       </c>
@@ -1388,14 +1395,14 @@
         <v>24990000</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
       <c r="T21" s="7">
         <v>58310</v>
       </c>
@@ -1408,14 +1415,14 @@
         <v>11662000</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
       <c r="N22" t="s">
         <v>33</v>
       </c>
@@ -1437,18 +1444,18 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
       <c r="N23" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="30">
         <v>2723596188</v>
       </c>
       <c r="T23" s="7">
@@ -1463,7 +1470,7 @@
         <v>49504000</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="O24" s="11">
         <f>O23*P22/O22</f>
         <v>0.7520821150226652</v>
@@ -1471,6 +1478,11 @@
       <c r="V24" s="8">
         <f>SUM(V11:V23)*6</f>
         <v>3621408000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O25" s="6">
+        <v>393754400</v>
       </c>
     </row>
   </sheetData>
